--- a/Theoretical Part/excels/Dynamic array time experiment.xlsx
+++ b/Theoretical Part/excels/Dynamic array time experiment.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>Start</t>
   </si>
@@ -380,13 +383,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -396,145 +399,178 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.003414900000052512</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.004875399999946239</v>
+        <v>1.452266666698657E-06</v>
       </c>
       <c r="D2">
-        <v>0.003574100000150793</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>2.357200000005833E-06</v>
+      </c>
+      <c r="E2">
+        <v>1.13113333312261E-06</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006746299999804251</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.009595300000000861</v>
+        <v>1.647033333332123E-06</v>
       </c>
       <c r="D3">
-        <v>0.006783799999993789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>2.271233333279573E-06</v>
+      </c>
+      <c r="E3">
+        <v>1.145899999907366E-06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.009928400000035253</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0.01393970000003719</v>
+        <v>1.945666666668128E-06</v>
       </c>
       <c r="D4">
-        <v>0.009564200000113487</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>2.401866666736573E-06</v>
+      </c>
+      <c r="E4">
+        <v>1.155222222223529E-06</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.01357719999987239</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>0.01914629999987483</v>
+        <v>3.070033333339477E-06</v>
       </c>
       <c r="D5">
-        <v>0.01337390000003325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>3.259733333303908E-06</v>
+      </c>
+      <c r="E5">
+        <v>1.501883333351846E-06</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.01664229999983036</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>0.02390369999989161</v>
+        <v>2.372439999999188E-06</v>
       </c>
       <c r="D6">
-        <v>0.0163043000000016</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>2.6159200000014E-06</v>
+      </c>
+      <c r="E6">
+        <v>1.152746666715151E-06</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.01845899999989342</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>0.02668459999995321</v>
+        <v>3.595077777794762E-06</v>
       </c>
       <c r="D7">
-        <v>0.01860830000009628</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>3.491944444451495E-06</v>
+      </c>
+      <c r="E7">
+        <v>1.375333333372611E-06</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.02457500000014079</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>0.03473660000008749</v>
+        <v>2.89460000000136E-06</v>
       </c>
       <c r="D8">
-        <v>0.02798969999980727</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>2.910971428588839E-06</v>
+      </c>
+      <c r="E8">
+        <v>1.159038095205948E-06</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.03453379999996287</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>0.04767629999992096</v>
+        <v>3.57759166665043E-06</v>
       </c>
       <c r="D9">
-        <v>0.03136219999987588</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>3.141274999999647E-06</v>
+      </c>
+      <c r="E9">
+        <v>1.198141666653403E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.03219209999997474</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>0.05417680000005021</v>
+        <v>4.196711111102626E-06</v>
       </c>
       <c r="D10">
-        <v>0.03442740000014055</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>3.72613333335418E-06</v>
+      </c>
+      <c r="E10">
+        <v>1.292066666691324E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.03456300000016199</v>
+        <v>9</v>
       </c>
       <c r="C11">
-        <v>0.04834850000020197</v>
+        <v>3.924486666649803E-06</v>
       </c>
       <c r="D11">
-        <v>0.03402870000013536</v>
+        <v>4.456713333335453E-06</v>
+      </c>
+      <c r="E11">
+        <v>1.439220000005055E-06</v>
       </c>
     </row>
   </sheetData>
